--- a/helpers/REF_CODE_DOMAINS_for_sites.xlsx
+++ b/helpers/REF_CODE_DOMAINS_for_sites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\TERN_morph_data_service\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\SALI_morph_data_service\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="0" windowWidth="15360" windowHeight="3210"/>
+    <workbookView xWindow="4275" yWindow="0" windowWidth="15360" windowHeight="3210"/>
   </bookViews>
   <sheets>
     <sheet name="REF_CODE_DOMAINS" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="376">
   <si>
     <t>RV_DOMAIN</t>
   </si>
@@ -1134,6 +1134,42 @@
   </si>
   <si>
     <t>FAO</t>
+  </si>
+  <si>
+    <t>LAB RESULT STATUS</t>
+  </si>
+  <si>
+    <t>Lab data</t>
+  </si>
+  <si>
+    <t>SIT_LAB_RESULTS</t>
+  </si>
+  <si>
+    <t>Mixture of statuses related to result quality - 'A' is the good stuff. Other status signify particular outcomes: that the result was below or above the method's quantification limit, that something might have gone wrong while conducting the test (e.g. 'sample flocculated' for PSA), that there was insufficient sample volume to run the requested method, etc</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>LAB SAMPLE STATUS</t>
+  </si>
+  <si>
+    <t>Status of sample supplied after analytical run complete</t>
+  </si>
+  <si>
+    <t>LAB_METH_UNITS</t>
+  </si>
+  <si>
+    <t>SIT_LAB_METHODS</t>
+  </si>
+  <si>
+    <t>LAB RESULT QC CODES</t>
+  </si>
+  <si>
+    <t>Result of analyte-specific QC assessment. Ratings made using survyeor's judgement about whether the result is appropriate and expected for the soil in question. New field, so rarely populated.</t>
+  </si>
+  <si>
+    <t>Deceode of units for particular laboratory methods</t>
   </si>
 </sst>
 </file>
@@ -1979,11 +2015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,6 +5175,86 @@
         <v>363</v>
       </c>
     </row>
+    <row r="141" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>364</v>
+      </c>
+      <c r="B141" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>369</v>
+      </c>
+      <c r="B142" t="s">
+        <v>365</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>371</v>
+      </c>
+      <c r="B143" t="s">
+        <v>365</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>373</v>
+      </c>
+      <c r="B144" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H243">
     <sortCondition ref="A2:A243"/>
